--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Tаблица 1</t>
   </si>
@@ -37,11 +37,12 @@
   <si>
     <r>
       <rPr>
+        <u val="single"/>
         <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="Arial"/>
+        <color indexed="16"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>andrey@mail.ru</t>
+      <t>zakolesnik.m@gmail.com</t>
     </r>
   </si>
   <si>
@@ -51,30 +52,10 @@
     <t>Олег</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>oleg@mail.ru</t>
-    </r>
-  </si>
-  <si>
     <t>Камбала</t>
   </si>
   <si>
     <t>Елена</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>elena@mail.ru</t>
-    </r>
   </si>
   <si>
     <t>x</t>
@@ -87,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -113,6 +94,12 @@
       <sz val="10"/>
       <color indexed="15"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="16"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="5">
@@ -141,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -291,13 +278,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -344,6 +418,33 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -370,6 +471,7 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff0000d4"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1434,13 +1536,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.4844" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.3516" style="1" customWidth="1"/>
     <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1490,10 +1594,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="13">
         <v>10</v>
-      </c>
-      <c r="C4" t="s" s="13">
-        <v>11</v>
       </c>
       <c r="D4" s="14">
         <v>0</v>
@@ -1502,10 +1606,10 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s" s="12">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s" s="13">
         <v>8</v>
@@ -1514,8 +1618,43 @@
         <v>1</v>
       </c>
       <c r="E5" t="s" s="13">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Tаблица 1</t>
   </si>
@@ -42,7 +42,7 @@
         <color indexed="16"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>zakolesnik.m@gmail.com</t>
+      <t>zmi_bm@mail.ru</t>
     </r>
   </si>
   <si>
@@ -50,6 +50,17 @@
   </si>
   <si>
     <t>Олег</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>zakolesnik.m@gmail.com</t>
+    </r>
   </si>
   <si>
     <t>Камбала</t>
@@ -1543,7 +1554,7 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.4844" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
     <col min="3" max="5" width="16.3516" style="1" customWidth="1"/>
     <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -1594,10 +1605,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s" s="12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="14">
         <v>0</v>
@@ -1606,10 +1617,10 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s" s="12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s" s="13">
         <v>8</v>
@@ -1618,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="14.7" customHeight="1">
@@ -1661,9 +1672,9 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="B4" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="B5" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="B3" r:id="rId1" location="" tooltip="" display="zmi_bm@mail.ru"/>
+    <hyperlink ref="B4" r:id="rId2" location="" tooltip="" display="zakolesnik.m@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId3" location="" tooltip="" display="zakolesnik.m@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
